--- a/device_init/6001.xlsx
+++ b/device_init/6001.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="42">
   <si>
     <t>0mm</t>
   </si>
@@ -49,41 +49,6 @@
     <t>80mm</t>
   </si>
   <si>
-    <t>(4-1)/200</t>
-  </si>
-  <si>
-    <t>(2-1)/130</t>
-  </si>
-  <si>
-    <t>15mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5mm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>3</t>
     </r>
@@ -107,33 +72,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FF9C0006"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -141,33 +79,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>5mm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mm</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,33 +123,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FF9C0006"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -246,108 +130,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>5mm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5mm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)/130</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,6 +177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -517,15 +300,67 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>10mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35mm</t>
+  </si>
+  <si>
+    <t>45mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +371,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -563,8 +399,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,8 +429,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -600,16 +458,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,17 +507,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -649,10 +516,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -937,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -978,7 +861,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1031,7 +914,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
@@ -1135,7 +1018,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1238,7 +1121,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1393,7 +1276,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1445,7 +1328,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1496,8 +1379,8 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8" t="s">
-        <v>39</v>
+      <c r="A55" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1599,7 +1482,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1652,7 +1535,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1705,7 +1588,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
@@ -1758,7 +1641,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1819,7 +1702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -1832,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1873,7 +1758,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1925,8 +1810,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>31</v>
+      <c r="A10" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -1977,8 +1862,8 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12" t="s">
-        <v>36</v>
+      <c r="A15" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="5"/>
@@ -2082,7 +1967,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2186,7 +2071,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2290,7 +2175,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2394,7 +2279,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C55" s="1"/>
     </row>
@@ -2497,7 +2382,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2550,7 +2435,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2611,7 +2496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -2624,22 +2511,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2647,10 +2528,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2658,10 +2539,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2680,28 +2561,28 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.66900000000000004</v>
+        <f>(B5-B2)/200</f>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="C6" s="5">
+        <f>(C3-C2)/130</f>
+        <v>0.68461538461538463</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2709,10 +2590,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2720,10 +2601,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C10" s="1">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2731,10 +2612,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C11" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2743,16 +2624,16 @@
       </c>
       <c r="B12" s="1">
         <f>(B11-B8)/200</f>
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="C12" s="1">
-        <f>(C10-C8)/130</f>
-        <v>0.7</v>
+        <v>0.745</v>
+      </c>
+      <c r="C12" s="5">
+        <f>(C9-C8)/130</f>
+        <v>0.7384615384615385</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
+      <c r="A13" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2762,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1">
-        <v>50</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2773,10 +2654,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1">
-        <v>143</v>
+        <v>146.5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2784,10 +2665,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>280</v>
+        <v>282.5</v>
       </c>
       <c r="C16" s="1">
-        <v>143</v>
+        <v>145.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2795,10 +2676,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>281</v>
+        <v>281.5</v>
       </c>
       <c r="C17" s="1">
-        <v>50</v>
+        <v>28.5</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -2808,16 +2689,16 @@
       </c>
       <c r="B18" s="1">
         <f>(B17-B14)/200</f>
-        <v>0.72</v>
+        <v>0.75749999999999995</v>
       </c>
       <c r="C18" s="5">
         <f>(C15-C14)/130</f>
-        <v>0.7153846153846154</v>
+        <v>0.74615384615384617</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2827,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1">
         <v>49</v>
@@ -2838,10 +2719,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="1">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2849,10 +2730,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C22" s="1">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2863,7 +2744,7 @@
         <v>283</v>
       </c>
       <c r="C23" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2871,15 +2752,17 @@
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.73099999999999998</v>
+        <f>(B23-B20)/200</f>
+        <v>0.77</v>
+      </c>
+      <c r="C24" s="5">
+        <f>(C21-C20)/130</f>
+        <v>0.75384615384615383</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
+      <c r="A25" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2889,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1">
-        <v>134</v>
+        <v>128.5</v>
       </c>
       <c r="C26" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2900,10 +2783,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="1">
-        <v>134</v>
+        <v>129.5</v>
       </c>
       <c r="C27" s="1">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2911,10 +2794,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>285</v>
+        <v>285.5</v>
       </c>
       <c r="C28" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2922,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1">
-        <v>286</v>
+        <v>285.5</v>
       </c>
       <c r="C29" s="1">
         <v>47</v>
@@ -2934,11 +2817,11 @@
       </c>
       <c r="B30" s="1">
         <f>(B29-B26)/200</f>
-        <v>0.76</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="C30" s="5">
         <f>(C27-C26)/130</f>
-        <v>0.75384615384615383</v>
+        <v>0.7615384615384615</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2953,10 +2836,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C32" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2964,10 +2847,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="1">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C33" s="1">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2978,7 +2861,7 @@
         <v>287</v>
       </c>
       <c r="C34" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2986,10 +2869,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="1">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C35" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2997,15 +2880,17 @@
         <v>2</v>
       </c>
       <c r="B36" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.77700000000000002</v>
+        <f>(B35-B32)/200</f>
+        <v>0.8</v>
+      </c>
+      <c r="C36" s="5">
+        <f>(C33-C32)/130</f>
+        <v>0.7846153846153846</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
+      <c r="A37" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3015,10 +2900,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="1">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1">
-        <v>44</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3026,10 +2911,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="1">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C39" s="1">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3037,10 +2922,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="1">
-        <v>290</v>
+        <v>288.5</v>
       </c>
       <c r="C40" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3048,10 +2933,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="1">
-        <v>291</v>
+        <v>289.5</v>
       </c>
       <c r="C41" s="1">
-        <v>44</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3060,11 +2945,11 @@
       </c>
       <c r="B42" s="1">
         <f>(B41-B38)/200</f>
-        <v>0.79500000000000004</v>
+        <v>0.8175</v>
       </c>
       <c r="C42" s="5">
         <f>(C39-C38)/130</f>
-        <v>0.79230769230769227</v>
+        <v>0.80384615384615388</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3080,10 +2965,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="1">
-        <v>131</v>
-      </c>
-      <c r="C44" s="4">
-        <v>43</v>
+        <v>124</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3091,10 +2976,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="1">
-        <v>131</v>
-      </c>
-      <c r="C45" s="4">
-        <v>148</v>
+        <v>125</v>
+      </c>
+      <c r="C45" s="1">
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3102,10 +2987,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="1">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C46" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3113,7 +2998,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="1">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C47" s="1">
         <v>43</v>
@@ -3124,29 +3009,30 @@
         <v>2</v>
       </c>
       <c r="B48" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="C48" s="7">
+        <f>(B47-B44)/200</f>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="C48" s="5">
         <f>(C45-C44)/130</f>
-        <v>0.80769230769230771</v>
+        <v>0.82307692307692304</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="4" t="s">
-        <v>18</v>
+      <c r="A49" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>1</v>
       </c>
       <c r="B50" s="1">
-        <v>129</v>
-      </c>
-      <c r="C50" s="3">
-        <v>41</v>
+        <v>122.5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>42.5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3154,10 +3040,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="1">
-        <v>129</v>
-      </c>
-      <c r="C51" s="3">
-        <v>149</v>
+        <v>123.5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3165,10 +3051,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="1">
-        <v>295</v>
-      </c>
-      <c r="C52" s="3">
-        <v>150</v>
+        <v>294</v>
+      </c>
+      <c r="C52" s="1">
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3176,23 +3062,23 @@
         <v>4</v>
       </c>
       <c r="B53" s="1">
-        <v>296</v>
-      </c>
-      <c r="C53" s="3">
-        <v>41</v>
+        <v>294</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="1">
         <f>(B53-B50)/200</f>
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="C54" s="9">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="C54" s="5">
         <f>(C51-C50)/130</f>
-        <v>0.83076923076923082</v>
+        <v>0.84230769230769231</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3207,10 +3093,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="1">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C56" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3218,10 +3104,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="1">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C57" s="1">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3232,37 +3118,38 @@
         <v>298</v>
       </c>
       <c r="C58" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>4</v>
       </c>
-      <c r="B59" s="4">
-        <v>299</v>
+      <c r="B59" s="1">
+        <v>297</v>
       </c>
       <c r="C59" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="1">
         <f>(B59-B56)/200</f>
-        <v>0.86</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.85399999999999998</v>
+        <v>0.88</v>
+      </c>
+      <c r="C60" s="5">
+        <f>(C57-C56)/130</f>
+        <v>0.86153846153846159</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="3"/>
+      <c r="A61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3">
@@ -3270,10 +3157,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="1">
-        <v>126</v>
+        <v>118.5</v>
       </c>
       <c r="C62" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3281,10 +3168,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="1">
-        <v>126</v>
+        <v>119.5</v>
       </c>
       <c r="C63" s="1">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3292,34 +3179,34 @@
         <v>3</v>
       </c>
       <c r="B64" s="1">
-        <v>301.5</v>
+        <v>301</v>
       </c>
       <c r="C64" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>4</v>
       </c>
-      <c r="B65" s="3">
-        <v>302.5</v>
+      <c r="B65" s="1">
+        <v>300</v>
       </c>
       <c r="C65" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="1">
         <f>(B65-B62)/200</f>
-        <v>0.88249999999999995</v>
-      </c>
-      <c r="C66" s="3">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="C66" s="5">
         <f>(C63-C62)/130</f>
-        <v>0.88461538461538458</v>
+        <v>0.89230769230769236</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3334,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="1">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C68" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3345,10 +3232,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="1">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C69" s="1">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3356,10 +3243,10 @@
         <v>3</v>
       </c>
       <c r="B70" s="1">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C70" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3367,10 +3254,10 @@
         <v>4</v>
       </c>
       <c r="B71" s="1">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C71" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3378,15 +3265,17 @@
         <v>2</v>
       </c>
       <c r="B72" s="1">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.90800000000000003</v>
+        <f>(B71-B68)/200</f>
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="C72" s="5">
+        <f>(C69-C68)/130</f>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="4" t="s">
-        <v>21</v>
+      <c r="A73" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3396,10 +3285,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="1">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C74" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3407,10 +3296,10 @@
         <v>2</v>
       </c>
       <c r="B75" s="1">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C75" s="1">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3418,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="B76" s="1">
-        <v>308</v>
+        <v>307.5</v>
       </c>
       <c r="C76" s="1">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3429,21 +3318,23 @@
         <v>4</v>
       </c>
       <c r="B77" s="1">
-        <v>308</v>
+        <v>306.5</v>
       </c>
       <c r="C77" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="3">
+      <c r="A78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="1">
         <f>(B77-B74)/200</f>
-        <v>0.92</v>
-      </c>
-      <c r="C78" s="3">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="C78" s="5">
         <f>(C75-C74)/130</f>
-        <v>0.93076923076923079</v>
+        <v>0.94615384615384612</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3458,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C80" s="1">
         <v>33</v>
@@ -3469,10 +3360,10 @@
         <v>2</v>
       </c>
       <c r="B81" s="1">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C81" s="1">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3483,7 +3374,7 @@
         <v>311</v>
       </c>
       <c r="C82" s="1">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3494,7 +3385,7 @@
         <v>310</v>
       </c>
       <c r="C83" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3502,15 +3393,17 @@
         <v>2</v>
       </c>
       <c r="B84" s="1">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0.94599999999999995</v>
+        <f>(B83-B80)/200</f>
+        <v>0.99</v>
+      </c>
+      <c r="C84" s="5">
+        <f>(C81-C80)/130</f>
+        <v>0.96923076923076923</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="4" t="s">
-        <v>23</v>
+      <c r="A85" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3520,10 +3413,10 @@
         <v>1</v>
       </c>
       <c r="B86" s="1">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C86" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3531,10 +3424,10 @@
         <v>2</v>
       </c>
       <c r="B87" s="1">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C87" s="1">
-        <v>158</v>
+        <v>160.5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3545,7 +3438,7 @@
         <v>315</v>
       </c>
       <c r="C88" s="1">
-        <v>158</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3553,27 +3446,28 @@
         <v>4</v>
       </c>
       <c r="B89" s="1">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C89" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="1">
         <f>(B89-B86)/200</f>
-        <v>0.97</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1</v>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="C90" s="5">
+        <f>(C87-C86)/130</f>
+        <v>0.9884615384615385</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3583,10 +3477,10 @@
         <v>1</v>
       </c>
       <c r="B92" s="1">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C92" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3594,10 +3488,10 @@
         <v>2</v>
       </c>
       <c r="B93" s="1">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C93" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3616,10 +3510,10 @@
         <v>4</v>
       </c>
       <c r="B95" s="1">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C95" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3627,10 +3521,12 @@
         <v>2</v>
       </c>
       <c r="B96" s="1">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1.0309999999999999</v>
+        <f>(B95-B92)/200</f>
+        <v>1.06</v>
+      </c>
+      <c r="C96" s="5">
+        <f>(C93-C92)/130</f>
+        <v>1.0076923076923077</v>
       </c>
     </row>
   </sheetData>
@@ -3642,9 +3538,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -3652,1020 +3550,1031 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>117</v>
-      </c>
-      <c r="C2" s="1">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>117</v>
-      </c>
-      <c r="C3" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>255</v>
-      </c>
-      <c r="C4" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>124</v>
+      </c>
+      <c r="C2" s="12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>124</v>
+      </c>
+      <c r="C3" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>261</v>
+      </c>
+      <c r="C4" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>257</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="12">
+        <v>258</v>
+      </c>
+      <c r="C5" s="12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12">
+        <f>(B4-B3)/200</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C6" s="14">
+        <f>(C2-C3)/130</f>
+        <v>0.67692307692307696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12">
+        <v>121</v>
+      </c>
+      <c r="C8" s="12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12">
+        <v>121</v>
+      </c>
+      <c r="C9" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12">
+        <v>267</v>
+      </c>
+      <c r="C10" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A11" s="12">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12">
+        <v>265</v>
+      </c>
+      <c r="C11" s="12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12">
+        <f>(B10-B9)/200</f>
+        <v>0.73</v>
+      </c>
+      <c r="C12" s="14">
+        <f>(C8-C9)/130</f>
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12">
+        <v>120.5</v>
+      </c>
+      <c r="C14" s="12">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A15" s="12">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12">
+        <v>120.5</v>
+      </c>
+      <c r="C15" s="12">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12">
+        <v>268.5</v>
+      </c>
+      <c r="C16" s="12">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A17" s="12">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12">
+        <v>266</v>
+      </c>
+      <c r="C17" s="12">
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="12">
+        <f>(B16-B15)/200</f>
+        <v>0.74</v>
+      </c>
+      <c r="C18" s="14">
+        <f>(C14-C15)/130</f>
+        <v>0.74615384615384617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A20" s="12">
+        <v>1</v>
+      </c>
+      <c r="B20" s="12">
+        <v>120</v>
+      </c>
+      <c r="C20" s="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A21" s="12">
+        <v>2</v>
+      </c>
+      <c r="B21" s="12">
+        <v>120</v>
+      </c>
+      <c r="C21" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A22" s="12">
+        <v>3</v>
+      </c>
+      <c r="B22" s="12">
+        <v>270</v>
+      </c>
+      <c r="C22" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A23" s="12">
+        <v>4</v>
+      </c>
+      <c r="B23" s="12">
+        <v>267</v>
+      </c>
+      <c r="C23" s="12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="12">
+        <f>(B22-B21)/200</f>
+        <v>0.75</v>
+      </c>
+      <c r="C24" s="14">
+        <f>(C20-C21)/130</f>
+        <v>0.75384615384615383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A26" s="12">
+        <v>1</v>
+      </c>
+      <c r="B26" s="12">
+        <v>120</v>
+      </c>
+      <c r="C26" s="12">
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A27" s="12">
+        <v>2</v>
+      </c>
+      <c r="B27" s="12">
+        <v>120</v>
+      </c>
+      <c r="C27" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A28" s="12">
+        <v>3</v>
+      </c>
+      <c r="B28" s="12">
+        <v>270</v>
+      </c>
+      <c r="C28" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A29" s="12">
+        <v>4</v>
+      </c>
+      <c r="B29" s="12">
+        <v>267</v>
+      </c>
+      <c r="C29" s="12">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="12">
+        <f>(B28-B27)/200</f>
+        <v>0.75</v>
+      </c>
+      <c r="C30" s="14">
+        <f>(C26-C27)/130</f>
+        <v>0.77307692307692311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A32" s="12">
+        <v>1</v>
+      </c>
+      <c r="B32" s="12">
+        <v>118</v>
+      </c>
+      <c r="C32" s="12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A33" s="12">
+        <v>2</v>
+      </c>
+      <c r="B33" s="12">
+        <v>118</v>
+      </c>
+      <c r="C33" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A34" s="12">
+        <v>3</v>
+      </c>
+      <c r="B34" s="12">
+        <v>273</v>
+      </c>
+      <c r="C34" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A35" s="12">
+        <v>4</v>
+      </c>
+      <c r="B35" s="12">
+        <v>271</v>
+      </c>
+      <c r="C35" s="12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="12">
+        <f>(B34-B33)/200</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C36" s="14">
+        <f>(C32-C33)/130</f>
+        <v>0.79230769230769227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A38" s="12">
+        <v>1</v>
+      </c>
+      <c r="B38" s="12">
+        <v>116.5</v>
+      </c>
+      <c r="C38" s="12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A39" s="12">
+        <v>2</v>
+      </c>
+      <c r="B39" s="12">
+        <v>116.5</v>
+      </c>
+      <c r="C39" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A40" s="12">
+        <v>3</v>
+      </c>
+      <c r="B40" s="12">
+        <v>276</v>
+      </c>
+      <c r="C40" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A41" s="12">
+        <v>4</v>
+      </c>
+      <c r="B41" s="12">
+        <v>273.5</v>
+      </c>
+      <c r="C41" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A42" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="12">
+        <f>(B40-B39)/200</f>
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="C42" s="14">
+        <f>(C38-C39)/130</f>
+        <v>0.80769230769230771</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A43" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A44" s="12">
+        <v>1</v>
+      </c>
+      <c r="B44" s="12">
+        <v>115</v>
+      </c>
+      <c r="C44" s="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A45" s="12">
+        <v>2</v>
+      </c>
+      <c r="B45" s="12">
+        <v>115</v>
+      </c>
+      <c r="C45" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A46" s="12">
+        <v>3</v>
+      </c>
+      <c r="B46" s="12">
+        <v>279</v>
+      </c>
+      <c r="C46" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A47" s="12">
+        <v>4</v>
+      </c>
+      <c r="B47" s="12">
+        <v>276</v>
+      </c>
+      <c r="C47" s="12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A48" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="12">
+        <f>(B46-B45)/200</f>
+        <v>0.82</v>
+      </c>
+      <c r="C48" s="14">
+        <f>(C44-C45)/130</f>
+        <v>0.82307692307692304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A50" s="12">
+        <v>1</v>
+      </c>
+      <c r="B50" s="12">
+        <v>113.5</v>
+      </c>
+      <c r="C50" s="12">
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A51" s="12">
+        <v>2</v>
+      </c>
+      <c r="B51" s="12">
+        <v>113.5</v>
+      </c>
+      <c r="C51" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A52" s="12">
+        <v>3</v>
+      </c>
+      <c r="B52" s="12">
+        <v>281.5</v>
+      </c>
+      <c r="C52" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A53" s="12">
+        <v>4</v>
+      </c>
+      <c r="B53" s="12">
+        <v>278</v>
+      </c>
+      <c r="C53" s="12">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A54" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="12">
+        <f>(B52-B51)/200</f>
+        <v>0.84</v>
+      </c>
+      <c r="C54" s="14">
+        <f>(C50-C51)/130</f>
+        <v>0.84230769230769231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A55" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A56" s="12">
+        <v>1</v>
+      </c>
+      <c r="B56" s="12">
+        <v>112</v>
+      </c>
+      <c r="C56" s="12">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C6" s="1">
-        <f>(C2-C3)/130</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>114</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="57" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A57" s="12">
+        <v>2</v>
+      </c>
+      <c r="B57" s="12">
+        <v>112</v>
+      </c>
+      <c r="C57" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A58" s="12">
+        <v>3</v>
+      </c>
+      <c r="B58" s="12">
+        <v>284</v>
+      </c>
+      <c r="C58" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A59" s="12">
+        <v>4</v>
+      </c>
+      <c r="B59" s="12">
+        <v>280</v>
+      </c>
+      <c r="C59" s="12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A60" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="12">
+        <f>(B58-B57)/200</f>
+        <v>0.86</v>
+      </c>
+      <c r="C60" s="14">
+        <f>(C56-C57)/130</f>
+        <v>0.86153846153846159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A61" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A62" s="12">
+        <v>1</v>
+      </c>
+      <c r="B62" s="12">
+        <v>109.5</v>
+      </c>
+      <c r="C62" s="12">
+        <v>158.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A63" s="12">
+        <v>2</v>
+      </c>
+      <c r="B63" s="12">
+        <v>109.5</v>
+      </c>
+      <c r="C63" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A64" s="12">
+        <v>3</v>
+      </c>
+      <c r="B64" s="12">
+        <v>287.5</v>
+      </c>
+      <c r="C64" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A65" s="12">
+        <v>4</v>
+      </c>
+      <c r="B65" s="12">
+        <v>284</v>
+      </c>
+      <c r="C65" s="12">
+        <v>156.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A66" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="12">
+        <f>(B64-B63)/200</f>
+        <v>0.89</v>
+      </c>
+      <c r="C66" s="14">
+        <f>(C62-C63)/130</f>
+        <v>0.89615384615384619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A67" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A68" s="12">
+        <v>1</v>
+      </c>
+      <c r="B68" s="12">
+        <v>107</v>
+      </c>
+      <c r="C68" s="12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A69" s="12">
+        <v>2</v>
+      </c>
+      <c r="B69" s="12">
+        <v>107</v>
+      </c>
+      <c r="C69" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A70" s="12">
+        <v>3</v>
+      </c>
+      <c r="B70" s="12">
+        <v>291</v>
+      </c>
+      <c r="C70" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A71" s="12">
+        <v>4</v>
+      </c>
+      <c r="B71" s="12">
+        <v>288</v>
+      </c>
+      <c r="C71" s="12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A72" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="12">
+        <f>(B70-B69)/200</f>
+        <v>0.92</v>
+      </c>
+      <c r="C72" s="14">
+        <f>(C68-C69)/130</f>
+        <v>0.93076923076923079</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A73" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A74" s="12">
+        <v>1</v>
+      </c>
+      <c r="B74" s="12">
+        <v>106</v>
+      </c>
+      <c r="C74" s="12">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A75" s="12">
+        <v>2</v>
+      </c>
+      <c r="B75" s="12">
+        <v>106</v>
+      </c>
+      <c r="C75" s="12">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A76" s="12">
+        <v>3</v>
+      </c>
+      <c r="B76" s="12">
+        <v>293.5</v>
+      </c>
+      <c r="C76" s="12">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A77" s="12">
+        <v>4</v>
+      </c>
+      <c r="B77" s="12">
+        <v>290</v>
+      </c>
+      <c r="C77" s="12">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>114</v>
-      </c>
-      <c r="C9" s="3">
-        <v>65.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>260</v>
-      </c>
-      <c r="C10" s="3">
-        <v>65.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
+    <row r="78" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A78" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="12">
+        <f>(B76-B75)/200</f>
+        <v>0.9375</v>
+      </c>
+      <c r="C78" s="14">
+        <f>(C74-C75)/130</f>
+        <v>0.9538461538461539</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A79" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+    </row>
+    <row r="80" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A80" s="12">
+        <v>1</v>
+      </c>
+      <c r="B80" s="12">
+        <v>105</v>
+      </c>
+      <c r="C80" s="12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A81" s="12">
+        <v>2</v>
+      </c>
+      <c r="B81" s="12">
+        <v>105</v>
+      </c>
+      <c r="C81" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A82" s="12">
+        <v>3</v>
+      </c>
+      <c r="B82" s="12">
+        <v>296</v>
+      </c>
+      <c r="C82" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A83" s="12">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
-        <v>260</v>
-      </c>
-      <c r="C11" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <f>(B11-B8)/200</f>
-        <v>0.73</v>
-      </c>
-      <c r="C12" s="5">
-        <f>(C8-C9)/130</f>
-        <v>0.72692307692307689</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>113</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B83" s="12">
+        <v>292</v>
+      </c>
+      <c r="C83" s="12">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>113</v>
-      </c>
-      <c r="C15" s="1">
-        <v>64.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1">
-        <v>262</v>
-      </c>
-      <c r="C16" s="1">
-        <v>64.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
+    <row r="84" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A84" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="12">
+        <f>(B82-B81)/200</f>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C84" s="14">
+        <f>(C80-C81)/130</f>
+        <v>0.97692307692307689</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A85" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A86" s="12">
+        <v>1</v>
+      </c>
+      <c r="B86" s="12">
+        <v>102</v>
+      </c>
+      <c r="C86" s="12">
+        <v>165.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A87" s="12">
+        <v>2</v>
+      </c>
+      <c r="B87" s="12">
+        <v>102</v>
+      </c>
+      <c r="C87" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A88" s="12">
+        <v>3</v>
+      </c>
+      <c r="B88" s="12">
+        <v>299.5</v>
+      </c>
+      <c r="C88" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A89" s="12">
         <v>4</v>
       </c>
-      <c r="B17" s="1">
-        <v>262</v>
-      </c>
-      <c r="C17" s="1">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1">
-        <f>(B17-B14)/200</f>
-        <v>0.745</v>
-      </c>
-      <c r="C18" s="5">
-        <f>(C14-C15)/130</f>
-        <v>0.74038461538461542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
-        <v>112</v>
-      </c>
-      <c r="C20" s="1">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1">
-        <v>112</v>
-      </c>
-      <c r="C21" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1">
-        <v>264</v>
-      </c>
-      <c r="C22" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="B89" s="12">
+        <v>295.5</v>
+      </c>
+      <c r="C89" s="12">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A90" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="12">
+        <f>(B88-B87)/200</f>
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="C90" s="14">
+        <f>(C86-C87)/130</f>
+        <v>1.0038461538461538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A91" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+    </row>
+    <row r="92" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A92" s="12">
+        <v>1</v>
+      </c>
+      <c r="B92" s="12">
+        <v>99</v>
+      </c>
+      <c r="C92" s="12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A93" s="12">
+        <v>2</v>
+      </c>
+      <c r="B93" s="12">
+        <v>99</v>
+      </c>
+      <c r="C93" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A94" s="12">
+        <v>3</v>
+      </c>
+      <c r="B94" s="12">
+        <v>303</v>
+      </c>
+      <c r="C94" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A95" s="12">
         <v>4</v>
       </c>
-      <c r="B23" s="1">
-        <v>264</v>
-      </c>
-      <c r="C23" s="1">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1">
-        <v>110.5</v>
-      </c>
-      <c r="C26" s="1">
-        <v>164.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1">
-        <v>110</v>
-      </c>
-      <c r="C27" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3">
-        <v>266</v>
-      </c>
-      <c r="C28" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3">
-        <v>265.5</v>
-      </c>
-      <c r="C29" s="1">
-        <v>164.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1">
-        <f>(B29-B26)/200</f>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="C30" s="5">
-        <f>(C26-C27)/130</f>
-        <v>0.78076923076923077</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1">
-        <v>109</v>
-      </c>
-      <c r="C32" s="1">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1">
-        <v>109</v>
-      </c>
-      <c r="C33" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1">
-        <v>267</v>
-      </c>
-      <c r="C34" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1">
-        <v>267</v>
-      </c>
-      <c r="C35" s="1">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.80800000000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1">
-        <v>107.5</v>
-      </c>
-      <c r="C38" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>2</v>
-      </c>
-      <c r="B39" s="1">
-        <v>107.5</v>
-      </c>
-      <c r="C39" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>3</v>
-      </c>
-      <c r="B40" s="1">
-        <v>269.5</v>
-      </c>
-      <c r="C40" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1">
-        <v>269.5</v>
-      </c>
-      <c r="C41" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1">
-        <f>(B41-B38)/200</f>
-        <v>0.81</v>
-      </c>
-      <c r="C42" s="5">
-        <f>(C38-C39)/130</f>
-        <v>0.82307692307692304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1">
-        <v>106</v>
-      </c>
-      <c r="C44" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1">
-        <v>106</v>
-      </c>
-      <c r="C45" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1">
-        <v>272</v>
-      </c>
-      <c r="C46" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>4</v>
-      </c>
-      <c r="B47" s="1">
-        <v>272</v>
-      </c>
-      <c r="C47" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="C48">
-        <v>0.83799999999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>1</v>
-      </c>
-      <c r="B50" s="1">
-        <v>104.5</v>
-      </c>
-      <c r="C50" s="1">
-        <v>171.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>2</v>
-      </c>
-      <c r="B51" s="1">
-        <v>104.5</v>
-      </c>
-      <c r="C51" s="1">
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>3</v>
-      </c>
-      <c r="B52" s="1">
-        <v>275</v>
-      </c>
-      <c r="C52" s="1">
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>4</v>
-      </c>
-      <c r="B53" s="1">
-        <v>275</v>
-      </c>
-      <c r="C53" s="1">
-        <v>171.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="1">
-        <f>(B53-B50)/200</f>
-        <v>0.85250000000000004</v>
-      </c>
-      <c r="C54" s="5">
-        <f>(C50-C51)/130</f>
-        <v>0.86923076923076925</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
-      <c r="B56" s="1">
-        <v>103</v>
-      </c>
-      <c r="C56" s="1">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>2</v>
-      </c>
-      <c r="B57" s="1">
-        <v>103</v>
-      </c>
-      <c r="C57" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>3</v>
-      </c>
-      <c r="B58" s="1">
-        <v>278</v>
-      </c>
-      <c r="C58" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>4</v>
-      </c>
-      <c r="B59" s="1">
-        <v>278</v>
-      </c>
-      <c r="C59" s="1">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="C60" s="1">
-        <f>(C56-C57)/130</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>1</v>
-      </c>
-      <c r="B62" s="1">
-        <v>101</v>
-      </c>
-      <c r="C62" s="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>2</v>
-      </c>
-      <c r="B63" s="1">
-        <v>101</v>
-      </c>
-      <c r="C63" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>3</v>
-      </c>
-      <c r="B64" s="1">
-        <v>281</v>
-      </c>
-      <c r="C64" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>4</v>
-      </c>
-      <c r="B65" s="1">
-        <v>281</v>
-      </c>
-      <c r="C65" s="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="1">
-        <f>(B65-B62)/200</f>
-        <v>0.9</v>
-      </c>
-      <c r="C66" s="5">
-        <f>(C62-C63)/130</f>
-        <v>0.92307692307692313</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>1</v>
-      </c>
-      <c r="B68" s="1">
-        <v>99</v>
-      </c>
-      <c r="C68" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>2</v>
-      </c>
-      <c r="B69" s="1">
-        <v>99</v>
-      </c>
-      <c r="C69" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>3</v>
-      </c>
-      <c r="B70" s="1">
-        <v>284</v>
-      </c>
-      <c r="C70" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>4</v>
-      </c>
-      <c r="B71" s="1">
-        <v>284</v>
-      </c>
-      <c r="C71" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.94599999999999995</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>1</v>
-      </c>
-      <c r="B74" s="1">
-        <v>97</v>
-      </c>
-      <c r="C74" s="1">
-        <v>180.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>2</v>
-      </c>
-      <c r="B75" s="1">
-        <v>97</v>
-      </c>
-      <c r="C75" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>3</v>
-      </c>
-      <c r="B76" s="1">
-        <v>286.5</v>
-      </c>
-      <c r="C76" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>4</v>
-      </c>
-      <c r="B77" s="1">
-        <v>286.5</v>
-      </c>
-      <c r="C77" s="1">
-        <v>180.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="1">
-        <f>(B77-B74)/200</f>
-        <v>0.94750000000000001</v>
-      </c>
-      <c r="C78" s="5">
-        <f>(C74-C75)/130</f>
-        <v>0.97307692307692306</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>1</v>
-      </c>
-      <c r="B80" s="1">
-        <v>95</v>
-      </c>
-      <c r="C80" s="1">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>2</v>
-      </c>
-      <c r="B81" s="1">
-        <v>95</v>
-      </c>
-      <c r="C81" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>3</v>
-      </c>
-      <c r="B82" s="1">
-        <v>289</v>
-      </c>
-      <c r="C82" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>4</v>
-      </c>
-      <c r="B83" s="1">
-        <v>289</v>
-      </c>
-      <c r="C83" s="1">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>1</v>
-      </c>
-      <c r="B86" s="1">
-        <v>92.5</v>
-      </c>
-      <c r="C86" s="1">
-        <v>184.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>2</v>
-      </c>
-      <c r="B87" s="1">
-        <v>92.5</v>
-      </c>
-      <c r="C87" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>3</v>
-      </c>
-      <c r="B88" s="1">
-        <v>294</v>
-      </c>
-      <c r="C88" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>4</v>
-      </c>
-      <c r="B89" s="1">
-        <v>294</v>
-      </c>
-      <c r="C89" s="1">
-        <v>184.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="1">
-        <f>(B89-B86)/200</f>
-        <v>1.0075000000000001</v>
-      </c>
-      <c r="C90" s="5">
-        <f>(C86-C87)/130</f>
-        <v>1.0269230769230768</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>1</v>
-      </c>
-      <c r="B92" s="1">
-        <v>90</v>
-      </c>
-      <c r="C92" s="1">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>2</v>
-      </c>
-      <c r="B93" s="1">
-        <v>90</v>
-      </c>
-      <c r="C93" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>3</v>
-      </c>
-      <c r="B94" s="1">
+      <c r="B95" s="12">
         <v>299</v>
       </c>
-      <c r="C94" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>4</v>
-      </c>
-      <c r="B95" s="1">
-        <v>299</v>
-      </c>
-      <c r="C95" s="1">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="1">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1.054</v>
-      </c>
-    </row>
+      <c r="C95" s="12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" thickTop="1" thickBot="1">
+      <c r="A96" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="12">
+        <f>(B94-B93)/200</f>
+        <v>1.02</v>
+      </c>
+      <c r="C96" s="14">
+        <f>(C92-C93)/130</f>
+        <v>1.0307692307692307</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
